--- a/biology/Botanique/Lotos/Lotos.xlsx
+++ b/biology/Botanique/Lotos/Lotos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lotos[1] (Λοτος [sic. λωτός], lotos, en grec) est un fruit au goût de miel qui apparaît essentiellement dans l'épisode des Lotophages (littéralement les « mangeurs de lotos ») dans l'Odyssée d'Homère. C'est une plante qui a la capacité de faire perdre la mémoire : quiconque s'en nourrit oublie qui il est et d'où il vient. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lotos (Λοτος [sic. λωτός], lotos, en grec) est un fruit au goût de miel qui apparaît essentiellement dans l'épisode des Lotophages (littéralement les « mangeurs de lotos ») dans l'Odyssée d'Homère. C'est une plante qui a la capacité de faire perdre la mémoire : quiconque s'en nourrit oublie qui il est et d'où il vient. 
 On l'a identifié avec la baie du jujubier sauvage (ou jujubier lotus). Son nom peut être, en raison de cette homophonie et paronymie, confondu avec celui de la fleur aquatique Nymphaea lotus.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Dans l’Odyssée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les éclaireurs qu'Ulysse envoie en reconnaissance après avoir abordé l'île apparemment hospitalière des Lotophages, goûtent leur lotos et oublient leur mission, leur identité et leur envie de retour : le héros d'Homère devra les ramener de force afin de pouvoir poursuivre son voyage vers Ithaque. 
@@ -545,7 +559,9 @@
           <t>Dans les Histoires de Polybe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'historien Grec Polybe au IIe siècle avant notre ère décrit dans son Livre XII le lotos comme suit :
